--- a/ethical-system.xlsx
+++ b/ethical-system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsaied/Library/Mobile Documents/com~apple~CloudDocs/University/MIZZOU/Spring 2021/CS 4320 - Software Engineering/Module 4/Exercise-4.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBAE6F85-C012-AE45-B5FD-D900F138798B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B68FDC-D21C-A44D-85EF-6070B4454738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29760" yWindow="4000" windowWidth="28040" windowHeight="17440" xr2:uid="{A9DF9EF6-A7B3-374E-8D5D-39AB43A42704}"/>
+    <workbookView xWindow="12240" yWindow="6620" windowWidth="28040" windowHeight="17440" xr2:uid="{A9DF9EF6-A7B3-374E-8D5D-39AB43A42704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Name: Jamal Saied</t>
+  </si>
+  <si>
+    <t>PawPrint: Jas8dz</t>
+  </si>
+  <si>
+    <t>Case: Reatiler Selling your personal Information.</t>
+  </si>
+  <si>
+    <t>Ethical Quandary</t>
+  </si>
+  <si>
+    <t>Socio-technical systems</t>
+  </si>
+  <si>
+    <t>Technical systems</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Data Ownership</t>
+  </si>
+  <si>
+    <t>Individual Privacy</t>
+  </si>
+  <si>
+    <t>Profitability on Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail Software </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -52,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -60,12 +113,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +536,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A811B6AA-0E73-DE47-B7EF-99757A8FB43A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="110" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>